--- a/annotation/Renaming_tables.xlsx
+++ b/annotation/Renaming_tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saskiafreytag/Desktop/Neuronal_Maturation/neuro_mat/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4ABFB9-671C-964B-AD6F-D1E17BED5432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D66F66-6E67-A547-BE1A-FB98D7AF4A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{340CA1AD-F4AA-704A-9DEE-C425649C8BCE}"/>
+    <workbookView xWindow="18260" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{340CA1AD-F4AA-704A-9DEE-C425649C8BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Gene Trends" sheetId="1" r:id="rId1"/>
     <sheet name="Hotspot Modules" sheetId="2" r:id="rId2"/>
+    <sheet name="Cell types" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Original name</t>
   </si>
@@ -73,9 +74,6 @@
     <t>G14</t>
   </si>
   <si>
-    <t>G15</t>
-  </si>
-  <si>
     <t>Orignial name</t>
   </si>
   <si>
@@ -119,6 +117,27 @@
   </si>
   <si>
     <t>M14</t>
+  </si>
+  <si>
+    <t>LAMP5_CA1</t>
+  </si>
+  <si>
+    <t>LAMP5_NOS1</t>
+  </si>
+  <si>
+    <t>LAMP5_CCP2</t>
+  </si>
+  <si>
+    <t>LAMP5_CCK</t>
+  </si>
+  <si>
+    <t>LAMP5_NMBR</t>
+  </si>
+  <si>
+    <t>LAMP5_NDNF</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
 </sst>
 </file>
@@ -478,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C18280-0CF3-594E-A892-46F5EDCC9E45}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -605,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F551A-BEE3-564B-ABF4-730FD7C4CBF5}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -630,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -641,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -649,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -673,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,11 +764,62 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648AC887-4767-9F42-B9B6-6D99B215F2F9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>